--- a/COVID NFLStats/S/S_aggregate.xlsx
+++ b/COVID NFLStats/S/S_aggregate.xlsx
@@ -711,7 +711,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Justin Reid</t>
+          <t>Harrison Smith</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>4.333333333333333</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>75.66666666666667</v>
+        <v>96</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>53.33333333333334</v>
+        <v>67.33333333333333</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>22.33333333333333</v>
+        <v>28.66666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Justin Reid</t>
+          <t>Harrison Smith</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -750,16 +750,16 @@
         <v>88.33333333333333</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>64.66666666666667</v>
+        <v>60.66666666666666</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>23.66666666666667</v>
+        <v>27.66666666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Justin Reid</t>
+          <t>Harrison Smith</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>3.333333333333334</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>12.66666666666666</v>
+        <v>-7.666666666666671</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>11.33333333333334</v>
+        <v>-6.666666666666664</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>1.333333333333336</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Lonnie Johnson</t>
+          <t>Jalen Mills</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -792,22 +792,22 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4.333333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>57.33333333333334</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>42.66666666666666</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>14.66666666666667</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Lonnie Johnson</t>
+          <t>Jalen Mills</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>7.333333333333333</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.666666666666667</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Lonnie Johnson</t>
+          <t>Jalen Mills</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -840,22 +840,22 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-3.666666666666667</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-48.33333333333334</v>
+        <v>-14</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-35.33333333333333</v>
+        <v>-18</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Ronnie Harrison</t>
+          <t>Jimmie Ward</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -864,22 +864,22 @@
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>6.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>55.66666666666666</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>19.66666666666667</v>
+        <v>22.66666666666667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Ronnie Harrison</t>
+          <t>Jimmie Ward</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -888,22 +888,22 @@
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>15.33333333333333</v>
+        <v>49.33333333333334</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>9.666666666666666</v>
+        <v>34.33333333333334</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>5.666666666666667</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Ronnie Harrison</t>
+          <t>Jimmie Ward</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -912,22 +912,22 @@
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-5.333333333333333</v>
+        <v>-2</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>-40.33333333333333</v>
+        <v>-22.33333333333334</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>-26.33333333333334</v>
+        <v>-14.66666666666666</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>-14</v>
+        <v>-7.666666666666668</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Harrison Smith</t>
+          <t>Julian Love</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -936,22 +936,22 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>9.333333333333334</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>96</v>
+        <v>55.66666666666666</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>67.33333333333333</v>
+        <v>37.66666666666666</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>28.66666666666667</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Harrison Smith</t>
+          <t>Julian Love</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -960,22 +960,22 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>7.666666666666667</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>88.33333333333333</v>
+        <v>118.6666666666667</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>60.66666666666666</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>27.66666666666667</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Harrison Smith</t>
+          <t>Julian Love</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-1.666666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-7.666666666666671</v>
+        <v>63.00000000000001</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-6.666666666666664</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-1</v>
+        <v>19.66666666666666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Jalen Mills</t>
+          <t>Justin Reid</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -1008,22 +1008,22 @@
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>5.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>54</v>
+        <v>75.66666666666667</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>41</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>13</v>
+        <v>22.33333333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Jalen Mills</t>
+          <t>Justin Reid</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1032,22 +1032,22 @@
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>4</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>40</v>
+        <v>88.33333333333333</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>23</v>
+        <v>64.66666666666667</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>17</v>
+        <v>23.66666666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Jalen Mills</t>
+          <t>Justin Reid</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>-1.666666666666667</v>
+        <v>3.333333333333334</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>-14</v>
+        <v>12.66666666666666</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>-18</v>
+        <v>11.33333333333334</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>4</v>
+        <v>1.333333333333336</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Julian Love</t>
+          <t>Lonnie Johnson</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1083,19 +1083,19 @@
         <v>4.333333333333333</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>55.66666666666666</v>
+        <v>57.33333333333334</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>37.66666666666666</v>
+        <v>42.66666666666666</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>18</v>
+        <v>14.66666666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Julian Love</t>
+          <t>Lonnie Johnson</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1104,22 +1104,22 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>118.6666666666667</v>
-      </c>
       <c r="E27" s="2" t="n">
-        <v>81</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>37.66666666666666</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>Julian Love</t>
+          <t>Lonnie Johnson</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1128,16 +1128,16 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>4.666666666666667</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>63.00000000000001</v>
+        <v>-48.33333333333334</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>43.33333333333334</v>
+        <v>-35.33333333333333</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>19.66666666666666</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="29">
@@ -1215,7 +1215,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Tyrann Mathieu</t>
+          <t>Minkah Fitzpatrick</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1224,22 +1224,22 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>57</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>14</v>
+        <v>25.22222222222222</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>Tyrann Mathieu</t>
+          <t>Minkah Fitzpatrick</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>76</v>
+        <v>85.33333333333333</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>53.66666666666666</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>22.33333333333333</v>
+        <v>31.66666666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>Tyrann Mathieu</t>
+          <t>Minkah Fitzpatrick</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>5</v>
+        <v>2.333333333333329</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-3.333333333333336</v>
+        <v>-4.111111111111107</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>8.333333333333332</v>
+        <v>6.444444444444443</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Jimmie Ward</t>
+          <t>Rodney McLeod</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
@@ -1296,22 +1296,22 @@
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>6</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>71.66666666666667</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>49</v>
+        <v>40.33333333333334</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>22.66666666666667</v>
+        <v>26.33333333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Jimmie Ward</t>
+          <t>Rodney McLeod</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>49.33333333333334</v>
+        <v>54.66666666666666</v>
       </c>
       <c r="E36" s="3" t="n">
         <v>34.33333333333334</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>15</v>
+        <v>20.33333333333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Jimmie Ward</t>
+          <t>Rodney McLeod</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
@@ -1344,22 +1344,22 @@
         </is>
       </c>
       <c r="C37" s="3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>-22.33333333333334</v>
+        <v>-12.00000000000001</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>-14.66666666666666</v>
+        <v>-6</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>-7.666666666666668</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>Minkah Fitzpatrick</t>
+          <t>Ronnie Harrison</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -1368,22 +1368,22 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>8</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>83</v>
+        <v>55.66666666666666</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>57.77777777777777</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>25.22222222222222</v>
+        <v>19.66666666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>Minkah Fitzpatrick</t>
+          <t>Ronnie Harrison</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -1392,22 +1392,22 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>85.33333333333333</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>53.66666666666666</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>31.66666666666667</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>Minkah Fitzpatrick</t>
+          <t>Ronnie Harrison</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -1416,22 +1416,22 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-2</v>
+        <v>-5.333333333333333</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2.333333333333329</v>
+        <v>-40.33333333333333</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-4.111111111111107</v>
+        <v>-26.33333333333334</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>6.444444444444443</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Rodney McLeod</t>
+          <t>Tyrann Mathieu</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C41" s="3" t="n">
-        <v>5.666666666666667</v>
+        <v>9</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>66.66666666666667</v>
+        <v>71</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>40.33333333333334</v>
+        <v>57</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>26.33333333333333</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Rodney McLeod</t>
+          <t>Tyrann Mathieu</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
@@ -1464,22 +1464,22 @@
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>4.666666666666667</v>
+        <v>8</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>54.66666666666666</v>
+        <v>76</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>34.33333333333334</v>
+        <v>53.66666666666666</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>20.33333333333333</v>
+        <v>22.33333333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Rodney McLeod</t>
+          <t>Tyrann Mathieu</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
@@ -1491,13 +1491,13 @@
         <v>-1</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>-12.00000000000001</v>
+        <v>5</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>-6</v>
+        <v>-3.333333333333336</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>-6</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
   </sheetData>
